--- a/data/trans_bre/P34_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P34_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-4.512696035595775</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.956137003496233</v>
+        <v>1.956137003496228</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1880457262506304</v>
@@ -649,7 +649,7 @@
         <v>-0.1412917797626506</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.06727792975867186</v>
+        <v>0.06727792975867167</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.53973858475517</v>
+        <v>-10.9162846334758</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.378076557802723</v>
+        <v>-7.051443785049512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.867222697136754</v>
+        <v>-9.273722485754726</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.985729318756938</v>
+        <v>-2.512859797568365</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2971575104485269</v>
+        <v>-0.3088252400519477</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2545615238482113</v>
+        <v>-0.2472149344559149</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2788209820406924</v>
+        <v>-0.2681385276813262</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.09109985425605062</v>
+        <v>-0.07707780327701307</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.391456808272089</v>
+        <v>-1.162570838782666</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.989937304116402</v>
+        <v>2.159689432741335</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3504802308205035</v>
+        <v>0.9864158000892234</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.243750995371807</v>
+        <v>6.769062986507313</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.04425132376164945</v>
+        <v>-0.03808739655224947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08202596143497527</v>
+        <v>0.09989873344569811</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01370060599483665</v>
+        <v>0.03448905488640916</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2343027039301885</v>
+        <v>0.2625830903158377</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-13.05518773425163</v>
+        <v>-12.66947634456869</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.924578365821909</v>
+        <v>-3.580727506432899</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-11.6866247806116</v>
+        <v>-11.83178085715819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.528075913762961</v>
+        <v>-5.956542357414625</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3243593577152858</v>
+        <v>-0.3124368651306402</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1178631987252394</v>
+        <v>-0.110832217507326</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.322199976211294</v>
+        <v>-0.326149113797233</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1466346034887729</v>
+        <v>-0.1591611760501586</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-4.389394398283968</v>
+        <v>-3.958704294226013</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.314527505404333</v>
+        <v>4.504979329744745</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-3.319874905807589</v>
+        <v>-3.286695985871805</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.047175046112752</v>
+        <v>2.878101465623938</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1226092285861193</v>
+        <v>-0.1058147908721907</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1516653777198973</v>
+        <v>0.1566339047728794</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.103326987374752</v>
+        <v>-0.1034613731842754</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.09529102832147712</v>
+        <v>0.09218523421148293</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.3112533878477375</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.288966891209248</v>
+        <v>-1.288966891209253</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2725201211669737</v>
@@ -849,7 +849,7 @@
         <v>-0.008947201049698993</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.03755480099879702</v>
+        <v>-0.03755480099879718</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-15.12828784797783</v>
+        <v>-14.90895635568582</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.324896647104015</v>
+        <v>-7.080436626508435</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.387735037328516</v>
+        <v>-5.702136487701221</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.079777170693268</v>
+        <v>-6.181720793506006</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3851875068138379</v>
+        <v>-0.3788347362570534</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2124504218011747</v>
+        <v>-0.2092951889771714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1409557664141573</v>
+        <v>-0.1506400952532132</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1620996471783578</v>
+        <v>-0.167505132377279</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.996685203479241</v>
+        <v>-4.416453968622274</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.499960645796425</v>
+        <v>2.987452233337809</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.698163347880913</v>
+        <v>4.827264416113239</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.352323762460935</v>
+        <v>3.33587714302371</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1415748383967845</v>
+        <v>-0.1297201365290649</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08267977163151129</v>
+        <v>0.1033111674593963</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.146725536551335</v>
+        <v>0.1542340512846229</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1059357157200962</v>
+        <v>0.105195131869925</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-11.46777272898993</v>
+        <v>-11.21153814278887</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.479256759112758</v>
+        <v>-9.257622886752689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-12.40000045943656</v>
+        <v>-12.34169674006896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.960301131647747</v>
+        <v>-7.418735183998352</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.242225126289086</v>
+        <v>-0.2304389483735504</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2438808345460633</v>
+        <v>-0.2406425153076394</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2684445067590719</v>
+        <v>-0.2687742605401264</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1550546798430899</v>
+        <v>-0.1653407734479943</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-2.066860174583039</v>
+        <v>-1.983492439416941</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.9677600335721255</v>
+        <v>-1.077291468924163</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3.844640629631656</v>
+        <v>-3.361890327572746</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.460749693948577</v>
+        <v>1.252448924426171</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.04813664968041857</v>
+        <v>-0.044316510621843</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02946962529436888</v>
+        <v>-0.03061193227594365</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.09187259113642254</v>
+        <v>-0.08086214118744268</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03769481611108211</v>
+        <v>0.03145644331611932</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-5.252779111834871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.9981750077230511</v>
+        <v>-0.9981750077230567</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1937036423572263</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1434501215406956</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.02813102473409966</v>
+        <v>-0.0281310247340998</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.718560218348657</v>
+        <v>-9.824301584769149</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.420997402480737</v>
+        <v>-4.491507669443019</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.520469167189464</v>
+        <v>-7.487408189884451</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.512445703480239</v>
+        <v>-3.343442605888649</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2434461918315877</v>
+        <v>-0.2446022233220607</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1345650374261297</v>
+        <v>-0.1354419301308257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1988401783494458</v>
+        <v>-0.1974519480868202</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.09407361146017038</v>
+        <v>-0.09033596051459025</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-5.059379091639865</v>
+        <v>-5.544858316308396</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2466785527953516</v>
+        <v>-0.1044307196588568</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.900049933162885</v>
+        <v>-2.844881685870535</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.181755077388702</v>
+        <v>1.348862530986814</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1367111905750302</v>
+        <v>-0.1452594374011126</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008230082418896912</v>
+        <v>-0.002897422097648894</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.08154151848700356</v>
+        <v>-0.07909652817316737</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.03389436083492565</v>
+        <v>0.03926762741753526</v>
       </c>
     </row>
     <row r="19">
